--- a/table_results_policies.xlsx
+++ b/table_results_policies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -167,6 +167,132 @@
   </si>
   <si>
     <t>I2_N5_T100_C200_0_P6</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C140_0</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C140_0_P1</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C140_0_P2</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C140_0_P3</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C140_0_P4</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C140_0_P5</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C140_0_P6</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C210_0</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C210_0_P1</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C210_0_P2</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C210_0_P3</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C210_0_P4</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C210_0_P5</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C210_0_P6</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C280_0</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C280_0_P1</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C280_0_P2</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C280_0_P3</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C280_0_P4</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C280_0_P5</t>
+  </si>
+  <si>
+    <t>I2_N7_T30_C280_0_P6</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C140_0</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C140_0_P1</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C140_0_P2</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C140_0_P3</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C140_0_P4</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C140_0_P5</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C140_0_P6</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C210_0</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C210_0_P1</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C210_0_P2</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C210_0_P3</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C210_0_P4</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C210_0_P5</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C210_0_P6</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C280_0</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C280_0_P1</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C280_0_P2</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C280_0_P3</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C280_0_P4</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C280_0_P5</t>
+  </si>
+  <si>
+    <t>I2_N7_T100_C280_0_P6</t>
   </si>
 </sst>
 </file>
@@ -524,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1903,6 +2029,1350 @@
         <v>0</v>
       </c>
     </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44">
+        <v>309.431978056256</v>
+      </c>
+      <c r="D44">
+        <v>2.366000175476074</v>
+      </c>
+      <c r="E44">
+        <v>0.9693721510508347</v>
+      </c>
+      <c r="F44">
+        <v>33.86197805599477</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>225.2600000002612</v>
+      </c>
+      <c r="J44">
+        <v>50.31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45">
+        <v>1019.699639895617</v>
+      </c>
+      <c r="D45">
+        <v>0.01200008392333984</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>26.35557902654179</v>
+      </c>
+      <c r="G45">
+        <v>7.118526273374133</v>
+      </c>
+      <c r="H45">
+        <v>5.792587142453418</v>
+      </c>
+      <c r="I45">
+        <v>941.5899999999959</v>
+      </c>
+      <c r="J45">
+        <v>53.08</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>396.5896102867711</v>
+      </c>
+      <c r="D46">
+        <v>0.01600003242492676</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>27.5296102867676</v>
+      </c>
+      <c r="G46">
+        <v>1.145862120850498</v>
+      </c>
+      <c r="H46">
+        <v>1.145862120850498</v>
+      </c>
+      <c r="I46">
+        <v>275.5500000000035</v>
+      </c>
+      <c r="J46">
+        <v>93.50999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47">
+        <v>396.5896102867718</v>
+      </c>
+      <c r="D47">
+        <v>0.02200007438659668</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>27.5296102867676</v>
+      </c>
+      <c r="G47">
+        <v>1.145862120850498</v>
+      </c>
+      <c r="H47">
+        <v>1.145862120850498</v>
+      </c>
+      <c r="I47">
+        <v>275.5500000000042</v>
+      </c>
+      <c r="J47">
+        <v>93.50999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48">
+        <v>357.599157859413</v>
+      </c>
+      <c r="D48">
+        <v>0.01700019836425781</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>33.10915785941906</v>
+      </c>
+      <c r="G48">
+        <v>3.9641518638922</v>
+      </c>
+      <c r="H48">
+        <v>3.9641518638922</v>
+      </c>
+      <c r="I48">
+        <v>264.119999999994</v>
+      </c>
+      <c r="J48">
+        <v>60.37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49">
+        <v>1021.419132648</v>
+      </c>
+      <c r="D49">
+        <v>0.009999990463256836</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>26.74913264799307</v>
+      </c>
+      <c r="G49">
+        <v>4.450188684067006</v>
+      </c>
+      <c r="H49">
+        <v>4.450188684067006</v>
+      </c>
+      <c r="I49">
+        <v>393.770000000007</v>
+      </c>
+      <c r="J49">
+        <v>600.9000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50">
+        <v>696.9392770648811</v>
+      </c>
+      <c r="D50">
+        <v>0.00800013542175293</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>36.70927706488092</v>
+      </c>
+      <c r="G50">
+        <v>4.738617941974221</v>
+      </c>
+      <c r="H50">
+        <v>4.738617941974221</v>
+      </c>
+      <c r="I50">
+        <v>428.3500000000003</v>
+      </c>
+      <c r="J50">
+        <v>231.88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51">
+        <v>26.53458309510687</v>
+      </c>
+      <c r="D51">
+        <v>0.9140000343322754</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>26.53458309510687</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52">
+        <v>1091.229339571343</v>
+      </c>
+      <c r="D52">
+        <v>0.009000062942504883</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>23.91796089943222</v>
+      </c>
+      <c r="G52">
+        <v>4.77723927008741</v>
+      </c>
+      <c r="H52">
+        <v>4.738617941974221</v>
+      </c>
+      <c r="I52">
+        <v>620.2700000000234</v>
+      </c>
+      <c r="J52">
+        <v>447.08</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53">
+        <v>497.0523554984831</v>
+      </c>
+      <c r="D53">
+        <v>0.01600003242492676</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>24.99064597944741</v>
+      </c>
+      <c r="G53">
+        <v>6.065177049722176</v>
+      </c>
+      <c r="H53">
+        <v>2.836886568752553</v>
+      </c>
+      <c r="I53">
+        <v>366.5900000000053</v>
+      </c>
+      <c r="J53">
+        <v>108.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54">
+        <v>500.280645979443</v>
+      </c>
+      <c r="D54">
+        <v>0.0130000114440918</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>24.99064597944741</v>
+      </c>
+      <c r="G54">
+        <v>2.378003364169193</v>
+      </c>
+      <c r="H54">
+        <v>2.378003364169193</v>
+      </c>
+      <c r="I54">
+        <v>422.4199999999955</v>
+      </c>
+      <c r="J54">
+        <v>52.87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55">
+        <v>135.0555790265418</v>
+      </c>
+      <c r="D55">
+        <v>0.006000041961669922</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>26.35557902654179</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>108.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56">
+        <v>1091.43471156119</v>
+      </c>
+      <c r="D56">
+        <v>0.006999969482421875</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>24.3115145208835</v>
+      </c>
+      <c r="G56">
+        <v>3.366602695185008</v>
+      </c>
+      <c r="H56">
+        <v>3.139799735480239</v>
+      </c>
+      <c r="I56">
+        <v>969.9100000000115</v>
+      </c>
+      <c r="J56">
+        <v>97.44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57">
+        <v>147.3892770648809</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>36.70927706488092</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>110.68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58">
+        <v>26.29875013250022</v>
+      </c>
+      <c r="D58">
+        <v>1.130999803543091</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>26.29875013250022</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59">
+        <v>1676.610268005549</v>
+      </c>
+      <c r="D59">
+        <v>0.006999969482421875</v>
+      </c>
+      <c r="E59">
+        <v>7.11293361003758E-06</v>
+      </c>
+      <c r="F59">
+        <v>21.92482366701793</v>
+      </c>
+      <c r="G59">
+        <v>4.943173603449611</v>
+      </c>
+      <c r="H59">
+        <v>4.738617941974221</v>
+      </c>
+      <c r="I59">
+        <v>1347.510000000006</v>
+      </c>
+      <c r="J59">
+        <v>307.3800000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60">
+        <v>1014.423453125771</v>
+      </c>
+      <c r="D60">
+        <v>0.006000041961669922</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>22.00055025312762</v>
+      </c>
+      <c r="G60">
+        <v>5.894019291323108</v>
+      </c>
+      <c r="H60">
+        <v>3.646922163947599</v>
+      </c>
+      <c r="I60">
+        <v>793.1700000000191</v>
+      </c>
+      <c r="J60">
+        <v>201.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61">
+        <v>391.2679608994313</v>
+      </c>
+      <c r="D61">
+        <v>0.009999990463256836</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>23.91796089943222</v>
+      </c>
+      <c r="G61">
+        <v>3.9641518638922</v>
+      </c>
+      <c r="H61">
+        <v>3.9641518638922</v>
+      </c>
+      <c r="I61">
+        <v>218.7199999999991</v>
+      </c>
+      <c r="J61">
+        <v>148.63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62">
+        <v>77.8606459794474</v>
+      </c>
+      <c r="D62">
+        <v>0.0149998664855957</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>24.99064597944741</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>52.87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63">
+        <v>1674.399505879263</v>
+      </c>
+      <c r="D63">
+        <v>0.003999948501586914</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>23.33006819063954</v>
+      </c>
+      <c r="G63">
+        <v>6.41079396126198</v>
+      </c>
+      <c r="H63">
+        <v>2.590231649872266</v>
+      </c>
+      <c r="I63">
+        <v>1129.060000000013</v>
+      </c>
+      <c r="J63">
+        <v>525.83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64">
+        <v>147.3892770648809</v>
+      </c>
+      <c r="D64">
+        <v>0.004999876022338867</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>36.70927706488092</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>110.68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65">
+        <v>307.6174397573979</v>
+      </c>
+      <c r="D65">
+        <v>181.175999879837</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>32.04743975738332</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>275.5700000000146</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66">
+        <v>1017.797288545571</v>
+      </c>
+      <c r="D66">
+        <v>0.01200008392333984</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>26.35557902654179</v>
+      </c>
+      <c r="G66">
+        <v>8.443180413891367</v>
+      </c>
+      <c r="H66">
+        <v>5.214889932921746</v>
+      </c>
+      <c r="I66">
+        <v>691.7199999999982</v>
+      </c>
+      <c r="J66">
+        <v>302.95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67">
+        <v>396.5896102867676</v>
+      </c>
+      <c r="D67">
+        <v>0.01099991798400879</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>27.5296102867676</v>
+      </c>
+      <c r="G67">
+        <v>1.145862120850498</v>
+      </c>
+      <c r="H67">
+        <v>1.145862120850498</v>
+      </c>
+      <c r="I67">
+        <v>275.55</v>
+      </c>
+      <c r="J67">
+        <v>93.50999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68">
+        <v>396.5896102867676</v>
+      </c>
+      <c r="D68">
+        <v>0.01200008392333984</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>27.5296102867676</v>
+      </c>
+      <c r="G68">
+        <v>1.145862120850498</v>
+      </c>
+      <c r="H68">
+        <v>1.145862120850498</v>
+      </c>
+      <c r="I68">
+        <v>275.55</v>
+      </c>
+      <c r="J68">
+        <v>93.50999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69">
+        <v>357.4462074868381</v>
+      </c>
+      <c r="D69">
+        <v>0.01200008392333984</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>32.95620748683876</v>
+      </c>
+      <c r="G69">
+        <v>3.9641518638922</v>
+      </c>
+      <c r="H69">
+        <v>3.9641518638922</v>
+      </c>
+      <c r="I69">
+        <v>271.4099999999993</v>
+      </c>
+      <c r="J69">
+        <v>53.08</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70">
+        <v>1021.419132647999</v>
+      </c>
+      <c r="D70">
+        <v>0.009999990463256836</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>26.74913264799307</v>
+      </c>
+      <c r="G70">
+        <v>4.450188684067006</v>
+      </c>
+      <c r="H70">
+        <v>4.450188684067006</v>
+      </c>
+      <c r="I70">
+        <v>645.0300000000061</v>
+      </c>
+      <c r="J70">
+        <v>349.64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71">
+        <v>651.7408010327504</v>
+      </c>
+      <c r="D71">
+        <v>0.01200008392333984</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>34.03080103274972</v>
+      </c>
+      <c r="G71">
+        <v>2.843170765184533</v>
+      </c>
+      <c r="H71">
+        <v>2.843170765184533</v>
+      </c>
+      <c r="I71">
+        <v>448.6400000000006</v>
+      </c>
+      <c r="J71">
+        <v>169.07</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72">
+        <v>26.35557902654179</v>
+      </c>
+      <c r="D72">
+        <v>5.176999807357788</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>26.3555790265418</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73">
+        <v>1091.229339571329</v>
+      </c>
+      <c r="D73">
+        <v>0.00800013542175293</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>23.91796089943222</v>
+      </c>
+      <c r="G73">
+        <v>4.77723927008741</v>
+      </c>
+      <c r="H73">
+        <v>4.738617941974221</v>
+      </c>
+      <c r="I73">
+        <v>717.7100000000102</v>
+      </c>
+      <c r="J73">
+        <v>349.64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74">
+        <v>500.2806459794576</v>
+      </c>
+      <c r="D74">
+        <v>0.006999969482421875</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>24.99064597944741</v>
+      </c>
+      <c r="G74">
+        <v>2.378003364169193</v>
+      </c>
+      <c r="H74">
+        <v>2.378003364169193</v>
+      </c>
+      <c r="I74">
+        <v>235.9700000000101</v>
+      </c>
+      <c r="J74">
+        <v>239.32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75">
+        <v>500.2806459794576</v>
+      </c>
+      <c r="D75">
+        <v>0.008999824523925781</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>24.99064597944741</v>
+      </c>
+      <c r="G75">
+        <v>2.378003364169193</v>
+      </c>
+      <c r="H75">
+        <v>2.378003364169193</v>
+      </c>
+      <c r="I75">
+        <v>235.9700000000101</v>
+      </c>
+      <c r="J75">
+        <v>239.32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76">
+        <v>26.35557902654179</v>
+      </c>
+      <c r="D76">
+        <v>0.004999876022338867</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>26.35557902654179</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77">
+        <v>1091.321310081332</v>
+      </c>
+      <c r="D77">
+        <v>0.009000062942504883</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>24.3115145208835</v>
+      </c>
+      <c r="G77">
+        <v>3.754788217841379</v>
+      </c>
+      <c r="H77">
+        <v>3.414583778284226</v>
+      </c>
+      <c r="I77">
+        <v>1014.270000000005</v>
+      </c>
+      <c r="J77">
+        <v>53.08</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78">
+        <v>142.7308010327497</v>
+      </c>
+      <c r="D78">
+        <v>0.004999876022338867</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>34.03080103274972</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>108.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79">
+        <v>24.99064597944741</v>
+      </c>
+      <c r="D79">
+        <v>5.861999988555908</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>24.99064597944741</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80">
+        <v>1676.610268005544</v>
+      </c>
+      <c r="D80">
+        <v>0.007999897003173828</v>
+      </c>
+      <c r="E80">
+        <v>6.830343646905243E-06</v>
+      </c>
+      <c r="F80">
+        <v>21.92482366701793</v>
+      </c>
+      <c r="G80">
+        <v>4.943173603449611</v>
+      </c>
+      <c r="H80">
+        <v>4.738617941974221</v>
+      </c>
+      <c r="I80">
+        <v>1436.870000000001</v>
+      </c>
+      <c r="J80">
+        <v>218.02</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81">
+        <v>1013.861678843903</v>
+      </c>
+      <c r="D81">
+        <v>0.007999897003173828</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>22.00055025312762</v>
+      </c>
+      <c r="G81">
+        <v>6.773023273111587</v>
+      </c>
+      <c r="H81">
+        <v>3.9641518638922</v>
+      </c>
+      <c r="I81">
+        <v>846.039999999995</v>
+      </c>
+      <c r="J81">
+        <v>148.63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82">
+        <v>391.2525123681869</v>
+      </c>
+      <c r="D82">
+        <v>0.009000062942504883</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>23.91796089943222</v>
+      </c>
+      <c r="G82">
+        <v>2.598412980545262</v>
+      </c>
+      <c r="H82">
+        <v>2.582964449299987</v>
+      </c>
+      <c r="I82">
+        <v>367.35</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83">
+        <v>24.99064597944741</v>
+      </c>
+      <c r="D83">
+        <v>0.006000041961669922</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>24.99064597944741</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84">
+        <v>1674.399505879249</v>
+      </c>
+      <c r="D84">
+        <v>0.007999897003173828</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>23.33006819063954</v>
+      </c>
+      <c r="G84">
+        <v>6.41079396126198</v>
+      </c>
+      <c r="H84">
+        <v>2.590231649872266</v>
+      </c>
+      <c r="I84">
+        <v>1384.939999999999</v>
+      </c>
+      <c r="J84">
+        <v>269.95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85">
+        <v>142.7308010327497</v>
+      </c>
+      <c r="D85">
+        <v>0.006000041961669922</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>34.03080103274972</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>108.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/table_results_policies.xlsx
+++ b/table_results_policies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -43,256 +43,214 @@
     <t>Z5</t>
   </si>
   <si>
-    <t>I2_N5_T30_C100_0</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C100_0_P1</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C100_0_P2</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C100_0_P3</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C100_0_P4</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C100_0_P5</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C100_0_P6</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C150_0</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C150_0_P1</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C150_0_P2</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C150_0_P3</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C150_0_P4</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C150_0_P5</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C150_0_P6</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C200_0</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C200_0_P1</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C200_0_P2</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C200_0_P3</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C200_0_P4</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C200_0_P5</t>
-  </si>
-  <si>
-    <t>I2_N5_T30_C200_0_P6</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C100_0</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C100_0_P1</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C100_0_P2</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C100_0_P3</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C100_0_P4</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C100_0_P5</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C100_0_P6</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C150_0</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C150_0_P1</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C150_0_P2</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C150_0_P3</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C150_0_P4</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C150_0_P5</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C150_0_P6</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C200_0</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C200_0_P1</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C200_0_P2</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C200_0_P3</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C200_0_P4</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C200_0_P5</t>
-  </si>
-  <si>
-    <t>I2_N5_T100_C200_0_P6</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C140_0</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C140_0_P1</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C140_0_P2</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C140_0_P3</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C140_0_P4</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C140_0_P5</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C140_0_P6</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C210_0</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C210_0_P1</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C210_0_P2</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C210_0_P3</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C210_0_P4</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C210_0_P5</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C210_0_P6</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C280_0</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C280_0_P1</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C280_0_P2</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C280_0_P3</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C280_0_P4</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C280_0_P5</t>
-  </si>
-  <si>
-    <t>I2_N7_T30_C280_0_P6</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C140_0</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C140_0_P1</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C140_0_P2</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C140_0_P3</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C140_0_P4</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C140_0_P5</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C140_0_P6</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C210_0</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C210_0_P1</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C210_0_P2</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C210_0_P3</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C210_0_P4</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C210_0_P5</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C210_0_P6</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C280_0</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C280_0_P1</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C280_0_P2</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C280_0_P3</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C280_0_P4</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C280_0_P5</t>
-  </si>
-  <si>
-    <t>I2_N7_T100_C280_0_P6</t>
+    <t>I2_N10_T30_C400_0</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C400_0_P1</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C400_0_P2</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C400_0_P3</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C400_0_P4</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C400_0_P5</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C400_0_P6</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C350_0</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C350_0_P1</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C350_0_P2</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C350_0_P3</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C350_0_P4</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C350_0_P5</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C350_0_P6</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C325_0</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C325_0_P1</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C325_0_P2</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C325_0_P3</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C325_0_P4</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C325_0_P5</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C325_0_P6</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C300_0</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C300_0_P1</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C300_0_P2</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C300_0_P3</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C300_0_P4</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C300_0_P5</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C300_0_P6</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C275_0</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C275_0_P1</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C275_0_P2</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C275_0_P3</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C275_0_P4</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C275_0_P5</t>
+  </si>
+  <si>
+    <t>I2_N10_T30_C275_0_P6</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C400_0</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C400_0_P1</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C400_0_P2</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C400_0_P3</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C400_0_P4</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C400_0_P5</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C400_0_P6</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C350_0</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C350_0_P1</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C350_0_P2</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C350_0_P3</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C350_0_P4</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C350_0_P5</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C350_0_P6</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C325_0</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C325_0_P1</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C325_0_P2</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C325_0_P3</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C325_0_P4</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C325_0_P5</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C325_0_P6</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C300_0</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C300_0_P1</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C300_0_P2</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C300_0_P3</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C300_0_P4</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C300_0_P5</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C300_0_P6</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C275_0</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C275_0_P1</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C275_0_P2</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C275_0_P3</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C275_0_P4</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C275_0_P5</t>
+  </si>
+  <si>
+    <t>I2_N10_T100_C275_0_P6</t>
   </si>
 </sst>
 </file>
@@ -650,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,28 +651,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>1840.292649139901</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="D2">
-        <v>1.807999849319458</v>
+        <v>6.640000104904175</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.45855457449484</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="G2">
-        <v>9.249116512515144</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.953211077916887</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1664.050000000005</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>157.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -725,28 +683,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>1842.519424134</v>
+        <v>1641.363253779504</v>
       </c>
       <c r="D3">
-        <v>0.005000114440917969</v>
+        <v>0.01600003242492676</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.70842812148697</v>
+        <v>27.4951233263273</v>
       </c>
       <c r="G3">
-        <v>7.246023956405264</v>
+        <v>5.828170918474254</v>
       </c>
       <c r="H3">
-        <v>4.927019968912668</v>
+        <v>5.216301371661726</v>
       </c>
       <c r="I3">
-        <v>1196.580000000006</v>
+        <v>1113.989999999989</v>
       </c>
       <c r="J3">
-        <v>624.55</v>
+        <v>500.49</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -757,28 +715,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1842.243449249511</v>
+        <v>914.6193853066991</v>
       </c>
       <c r="D4">
-        <v>0.004999876022338867</v>
+        <v>0.01800012588500977</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7.272032830334747E-05</v>
       </c>
       <c r="F4">
-        <v>22.77660271490709</v>
+        <v>28.55175921606767</v>
       </c>
       <c r="G4">
-        <v>4.861670779827751</v>
+        <v>3.978370929286232</v>
       </c>
       <c r="H4">
-        <v>3.198517314426967</v>
+        <v>3.855997019923727</v>
       </c>
       <c r="I4">
-        <v>1357.840000000005</v>
+        <v>624.7299999999939</v>
       </c>
       <c r="J4">
-        <v>463.29</v>
+        <v>261.46</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -789,28 +747,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>1842.243449249511</v>
+        <v>914.619385306699</v>
       </c>
       <c r="D5">
-        <v>0.01099991798400879</v>
+        <v>0.01699995994567871</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7.272032830322318E-05</v>
       </c>
       <c r="F5">
-        <v>22.77660271490709</v>
+        <v>28.55175921606768</v>
       </c>
       <c r="G5">
-        <v>4.861670779827751</v>
+        <v>3.978370929286232</v>
       </c>
       <c r="H5">
-        <v>3.198517314426967</v>
+        <v>3.855997019923727</v>
       </c>
       <c r="I5">
-        <v>1357.840000000005</v>
+        <v>624.7299999999939</v>
       </c>
       <c r="J5">
-        <v>463.29</v>
+        <v>261.46</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -821,16 +779,16 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>1849.32478498384</v>
+        <v>198.2574223937857</v>
       </c>
       <c r="D6">
-        <v>0.004999876022338867</v>
+        <v>0.01200008392333984</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.0347856895565</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -839,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1222.869999294283</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>604.4200000000001</v>
+        <v>168.09</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -853,28 +811,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>1878.349107494148</v>
+        <v>1641.753530955469</v>
       </c>
       <c r="D7">
-        <v>0.01199984550476074</v>
+        <v>0.01900005340576172</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.52910749414057</v>
+        <v>27.88540050229173</v>
       </c>
       <c r="G7">
-        <v>5.773686034148751</v>
+        <v>5.828170918474254</v>
       </c>
       <c r="H7">
-        <v>5.773686034148751</v>
+        <v>5.216301371661726</v>
       </c>
       <c r="I7">
-        <v>1142.720000000007</v>
+        <v>999.7099999999893</v>
       </c>
       <c r="J7">
-        <v>714.0999999999999</v>
+        <v>614.77</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -885,28 +843,28 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>1847.71408045063</v>
+        <v>331.8870074779537</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.01099991798400879</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.74308443811681</v>
+        <v>42.97700747795366</v>
       </c>
       <c r="G8">
-        <v>8.378804457323486</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>6.059800469830892</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1485.490000000006</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>341.8</v>
+        <v>288.91</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -917,16 +875,16 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>648.7984281216146</v>
+        <v>30.16742315304752</v>
       </c>
       <c r="D9">
-        <v>1.390999794006348</v>
+        <v>21.38299989700317</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.951865957951739E-11</v>
       </c>
       <c r="F9">
-        <v>23.70842812148697</v>
+        <v>30.16742315304752</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>625.0900000001276</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -949,28 +907,28 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>964.377397386135</v>
+        <v>918.6369510162187</v>
       </c>
       <c r="D10">
-        <v>0.02099990844726562</v>
+        <v>0.01800012588500977</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.8873981872152</v>
+        <v>29.2269510162266</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>5.067300889383517</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.067300889383517</v>
       </c>
       <c r="I10">
-        <v>737.8199991989197</v>
+        <v>720.2999999999921</v>
       </c>
       <c r="J10">
-        <v>206.67</v>
+        <v>169.11</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -981,28 +939,28 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>648.7984281214851</v>
+        <v>918.6369510162187</v>
       </c>
       <c r="D11">
-        <v>0.008999824523925781</v>
+        <v>0.01999998092651367</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23.70842812148697</v>
+        <v>29.2269510162266</v>
       </c>
       <c r="G11">
-        <v>0.1674514855114759</v>
+        <v>5.067300889383517</v>
       </c>
       <c r="H11">
-        <v>0.1674514855114759</v>
+        <v>5.067300889383517</v>
       </c>
       <c r="I11">
-        <v>396.8999999999982</v>
+        <v>720.2999999999921</v>
       </c>
       <c r="J11">
-        <v>228.19</v>
+        <v>169.11</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1013,7 +971,7 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>650.5485545744948</v>
+        <v>934.6169510162224</v>
       </c>
       <c r="D12">
         <v>0.02200007438659668</v>
@@ -1022,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.45855457449484</v>
+        <v>29.22695101622659</v>
       </c>
       <c r="G12">
-        <v>0.7137534588357523</v>
+        <v>2.576352887851109</v>
       </c>
       <c r="H12">
-        <v>0.7137534588357523</v>
+        <v>2.576352887851109</v>
       </c>
       <c r="I12">
-        <v>350.3099999999999</v>
+        <v>642.7099999999958</v>
       </c>
       <c r="J12">
-        <v>274.78</v>
+        <v>262.68</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1045,28 +1003,28 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>648.79842781631</v>
+        <v>239.2632887764077</v>
       </c>
       <c r="D13">
-        <v>0.01799988746643066</v>
+        <v>0.01399993896484375</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23.70842812148697</v>
+        <v>30.9032887764077</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.406368372795691</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.406368372795691</v>
       </c>
       <c r="I13">
-        <v>625.0899996948228</v>
+        <v>32.61</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>175.75</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1077,28 +1035,28 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>964.3773973861349</v>
+        <v>1414.757905858271</v>
       </c>
       <c r="D14">
-        <v>0.01200008392333984</v>
+        <v>0.0150001049041748</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.8873981872152</v>
+        <v>29.17977540508634</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>5.828170918474254</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5.216301371661726</v>
       </c>
       <c r="I14">
-        <v>737.8199991989198</v>
+        <v>955.1899999999971</v>
       </c>
       <c r="J14">
-        <v>206.67</v>
+        <v>430.9999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1109,16 +1067,16 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>811.2430844381213</v>
+        <v>331.8870074779537</v>
       </c>
       <c r="D15">
-        <v>0.01999998092651367</v>
+        <v>0.01799988746643066</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.74308443811681</v>
+        <v>42.97700747795366</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1127,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>289.6000000000045</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>498.9</v>
+        <v>288.91</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1141,16 +1099,16 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>23.70842812148697</v>
+        <v>33.0671278619396</v>
       </c>
       <c r="D16">
-        <v>0.5270001888275146</v>
+        <v>15.14000010490417</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>9.357363073637232E-05</v>
       </c>
       <c r="F16">
-        <v>23.70842812148697</v>
+        <v>33.0671278619396</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1173,28 +1131,28 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>870.0831571140574</v>
+        <v>1396.780847482973</v>
       </c>
       <c r="D17">
-        <v>0.01199984550476074</v>
+        <v>0.02399992942810059</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.39770858716315</v>
+        <v>29.22695101622659</v>
       </c>
       <c r="G17">
-        <v>6.677845614195805</v>
+        <v>6.051544423917109</v>
       </c>
       <c r="H17">
-        <v>3.78329414108774</v>
+        <v>6.045440890658221</v>
       </c>
       <c r="I17">
-        <v>795.0000000000024</v>
+        <v>1153.100000000005</v>
       </c>
       <c r="J17">
-        <v>59.58</v>
+        <v>214.46</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1205,7 +1163,7 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <v>60.21739818721107</v>
+        <v>257.0474223937857</v>
       </c>
       <c r="D18">
         <v>0.01699995994567871</v>
@@ -1214,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.8873981872152</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.641915954000082</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.641915954000082</v>
       </c>
       <c r="I18">
-        <v>40.32999999999587</v>
+        <v>58.79</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>168.09</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1237,28 +1195,28 @@
         <v>26</v>
       </c>
       <c r="C19">
-        <v>60.21739818721107</v>
+        <v>257.0474223937857</v>
       </c>
       <c r="D19">
-        <v>0.01100015640258789</v>
+        <v>0.01900005340576172</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>19.8873981872152</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.641915954000082</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.641915954000082</v>
       </c>
       <c r="I19">
-        <v>40.32999999999587</v>
+        <v>58.79</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>168.09</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1269,16 +1227,16 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <v>60.21739818721107</v>
+        <v>94.4371278619396</v>
       </c>
       <c r="D20">
-        <v>0.01699995994567871</v>
+        <v>0.01700019836425781</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>19.8873981872152</v>
+        <v>33.0671278619396</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1287,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>40.32999999999587</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>61.37</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1301,28 +1259,28 @@
         <v>28</v>
       </c>
       <c r="C21">
-        <v>873.8372574679379</v>
+        <v>179.6474223937851</v>
       </c>
       <c r="D21">
-        <v>0.009000062942504883</v>
+        <v>0.01900005340576172</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.25725746793465</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="G21">
-        <v>3.836925852814985</v>
+        <v>0.5160968901282007</v>
       </c>
       <c r="H21">
-        <v>3.836925852814985</v>
+        <v>0.5160968901282007</v>
       </c>
       <c r="I21">
-        <v>211.5900000000032</v>
+        <v>104.2899999999994</v>
       </c>
       <c r="J21">
-        <v>642.99</v>
+        <v>45.19</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1333,16 +1291,16 @@
         <v>29</v>
       </c>
       <c r="C22">
-        <v>118.1830844381165</v>
+        <v>420.1170074779537</v>
       </c>
       <c r="D22">
-        <v>0.01800012588500977</v>
+        <v>0.01900005340576172</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.74308443811681</v>
+        <v>42.97700747795366</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1351,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>95.43999999999973</v>
+        <v>88.23000000000002</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>288.91</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1365,25 +1323,25 @@
         <v>30</v>
       </c>
       <c r="C23">
-        <v>1840.292649139975</v>
+        <v>34.72913941632567</v>
       </c>
       <c r="D23">
-        <v>2.167999982833862</v>
+        <v>22.15499997138977</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.45855457449484</v>
+        <v>34.72913941632567</v>
       </c>
       <c r="G23">
-        <v>9.081665027003668</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>2.785759592405411</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1821.130000000078</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1397,28 +1355,28 @@
         <v>31</v>
       </c>
       <c r="C24">
-        <v>1844.838428121494</v>
+        <v>1896.774265445851</v>
       </c>
       <c r="D24">
-        <v>0.003999948501586914</v>
+        <v>0.04500007629394531</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>3.404105608467839E-08</v>
       </c>
       <c r="F24">
-        <v>23.70842812148697</v>
+        <v>29.22695101622659</v>
       </c>
       <c r="G24">
-        <v>4.059258709012878</v>
+        <v>6.782545810908969</v>
       </c>
       <c r="H24">
-        <v>4.059258709012878</v>
+        <v>6.769860240544313</v>
       </c>
       <c r="I24">
-        <v>1130.220000000007</v>
+        <v>1604.87999999999</v>
       </c>
       <c r="J24">
-        <v>690.9099999999999</v>
+        <v>262.68</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1429,28 +1387,28 @@
         <v>32</v>
       </c>
       <c r="C25">
-        <v>1842.836264623021</v>
+        <v>498.8474218788118</v>
       </c>
       <c r="D25">
-        <v>0.003999948501586914</v>
+        <v>0.01600003242492676</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22.77660271490709</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="G25">
-        <v>4.209165066520216</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>3.138826974629349</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1357.840000000005</v>
+        <v>423.489999485026</v>
       </c>
       <c r="J25">
-        <v>463.29</v>
+        <v>45.19</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1461,28 +1419,28 @@
         <v>33</v>
       </c>
       <c r="C26">
-        <v>1842.83626462302</v>
+        <v>537.8174223937857</v>
       </c>
       <c r="D26">
-        <v>0.009999990463256836</v>
+        <v>0.01699995994567871</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>22.77660271490709</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="G26">
-        <v>6.226921474305846</v>
+        <v>5.511158257795896</v>
       </c>
       <c r="H26">
-        <v>5.156583382414978</v>
+        <v>5.511158257795896</v>
       </c>
       <c r="I26">
-        <v>1368.820000000004</v>
+        <v>339.56</v>
       </c>
       <c r="J26">
-        <v>452.31</v>
+        <v>168.09</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1493,28 +1451,28 @@
         <v>34</v>
       </c>
       <c r="C27">
-        <v>1849.324785689559</v>
+        <v>102.2671276712041</v>
       </c>
       <c r="D27">
-        <v>0.006000041961669922</v>
+        <v>0.0130000114440918</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>22.0347856895565</v>
+        <v>33.0671278619396</v>
       </c>
       <c r="G27">
-        <v>5.534924674958276</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>5.534924674958276</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1032.190000000003</v>
+        <v>69.19999980926445</v>
       </c>
       <c r="J27">
-        <v>795.0999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1525,28 +1483,28 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>1878.349107494151</v>
+        <v>498.8474219741757</v>
       </c>
       <c r="D28">
-        <v>0.003999948501586914</v>
+        <v>0.01699995994567871</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>21.52910749414057</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="G28">
-        <v>5.773686034148751</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>5.773686034148751</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1165.910000000011</v>
+        <v>217.28999958039</v>
       </c>
       <c r="J28">
-        <v>690.9099999999999</v>
+        <v>251.39</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1557,28 +1515,28 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>1875.173966114658</v>
+        <v>664.8770074779572</v>
       </c>
       <c r="D29">
-        <v>0.01800012588500977</v>
+        <v>0.01700019836425781</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>23.98753269570873</v>
+        <v>42.97700747795366</v>
       </c>
       <c r="G29">
-        <v>11.35362090348024</v>
+        <v>3.20199937539032</v>
       </c>
       <c r="H29">
-        <v>5.720054322421507</v>
+        <v>3.20199937539032</v>
       </c>
       <c r="I29">
-        <v>1515.020000000008</v>
+        <v>155.3300000000036</v>
       </c>
       <c r="J29">
-        <v>341.8</v>
+        <v>466.5699999999999</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1589,16 +1547,16 @@
         <v>37</v>
       </c>
       <c r="C30">
-        <v>648.7984281202688</v>
+        <v>91.15240443190382</v>
       </c>
       <c r="D30">
-        <v>1.562999963760376</v>
+        <v>555.2550001144409</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>23.70842812148697</v>
+        <v>40.2124044319062</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1607,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>625.0899999987818</v>
+        <v>9.359999999997626</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>41.58</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1621,28 +1579,28 @@
         <v>38</v>
       </c>
       <c r="C31">
-        <v>964.3773981872256</v>
+        <v>973.4958876702664</v>
       </c>
       <c r="D31">
-        <v>0.006999969482421875</v>
+        <v>0.01899981498718262</v>
       </c>
       <c r="E31">
-        <v>9.890102541427058E-11</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>19.8873981872152</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>8.425347380911306</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>7.973812657396208</v>
       </c>
       <c r="I31">
-        <v>296.6000000000104</v>
+        <v>661.3099999999957</v>
       </c>
       <c r="J31">
-        <v>647.89</v>
+        <v>282.47</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1653,28 +1611,28 @@
         <v>39</v>
       </c>
       <c r="C32">
-        <v>648.7984281214848</v>
+        <v>976.1856520136131</v>
       </c>
       <c r="D32">
-        <v>0.009999990463256836</v>
+        <v>0.02399992942810059</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>23.70842812148697</v>
+        <v>32.40565201361344</v>
       </c>
       <c r="G32">
-        <v>0.1674514855114759</v>
+        <v>3.99785277366627</v>
       </c>
       <c r="H32">
-        <v>0.1674514855114759</v>
+        <v>3.99785277366627</v>
       </c>
       <c r="I32">
-        <v>415.0499999999977</v>
+        <v>432.8699999999997</v>
       </c>
       <c r="J32">
-        <v>210.04</v>
+        <v>510.91</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1685,28 +1643,28 @@
         <v>40</v>
       </c>
       <c r="C33">
-        <v>650.5485545744936</v>
+        <v>976.1856520136131</v>
       </c>
       <c r="D33">
-        <v>0.0150001049041748</v>
+        <v>0.02099990844726562</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>25.45855457449484</v>
+        <v>32.40565201361344</v>
       </c>
       <c r="G33">
-        <v>0.7137534588357523</v>
+        <v>3.99785277366627</v>
       </c>
       <c r="H33">
-        <v>0.7137534588357523</v>
+        <v>3.99785277366627</v>
       </c>
       <c r="I33">
-        <v>157.6199999999988</v>
+        <v>432.8699999999997</v>
       </c>
       <c r="J33">
-        <v>467.47</v>
+        <v>510.91</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1717,28 +1675,28 @@
         <v>41</v>
       </c>
       <c r="C34">
-        <v>648.7984281214857</v>
+        <v>220.1589212663232</v>
       </c>
       <c r="D34">
-        <v>0.009999990463256836</v>
+        <v>0.01399993896484375</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>23.70842812148697</v>
+        <v>37.36892126633407</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>3.129780822997035</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3.129780822997035</v>
       </c>
       <c r="I34">
-        <v>235.3499999999987</v>
+        <v>75.04999999998908</v>
       </c>
       <c r="J34">
-        <v>389.74</v>
+        <v>107.74</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1749,28 +1707,28 @@
         <v>42</v>
       </c>
       <c r="C35">
-        <v>964.3773972335443</v>
+        <v>1310.214944151744</v>
       </c>
       <c r="D35">
-        <v>0.02100014686584473</v>
+        <v>0.02200007438659668</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>19.8873981872152</v>
+        <v>31.88681369856157</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>5.828170918474254</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>5.216301371661726</v>
       </c>
       <c r="I35">
-        <v>334.109999046329</v>
+        <v>1017.479999999995</v>
       </c>
       <c r="J35">
-        <v>610.38</v>
+        <v>261.46</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1781,28 +1739,28 @@
         <v>43</v>
       </c>
       <c r="C36">
-        <v>875.1075326957146</v>
+        <v>914.8770074779619</v>
       </c>
       <c r="D36">
-        <v>0.01699995994567871</v>
+        <v>0.0149998664855957</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>23.98753269570873</v>
+        <v>42.97700747795366</v>
       </c>
       <c r="G36">
-        <v>0.7137534588357523</v>
+        <v>5.336665625650533</v>
       </c>
       <c r="H36">
-        <v>0.7137534588357523</v>
+        <v>5.336665625650533</v>
       </c>
       <c r="I36">
-        <v>281.1300000000057</v>
+        <v>308.2500000000081</v>
       </c>
       <c r="J36">
-        <v>569.99</v>
+        <v>563.6499999999999</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1813,16 +1771,16 @@
         <v>44</v>
       </c>
       <c r="C37">
-        <v>23.70842812148697</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="D37">
-        <v>0.5540001392364502</v>
+        <v>184.2699999809265</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>23.70842812148697</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1845,28 +1803,28 @@
         <v>45</v>
       </c>
       <c r="C38">
-        <v>872.9407435361475</v>
+        <v>1637.714092545276</v>
       </c>
       <c r="D38">
-        <v>0.008999824523925781</v>
+        <v>0.0280001163482666</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>18.39770858716315</v>
+        <v>27.4951233263273</v>
       </c>
       <c r="G38">
-        <v>1.474156163621442</v>
+        <v>7.791107494118003</v>
       </c>
       <c r="H38">
-        <v>1.437191112608901</v>
+        <v>3.530076713074859</v>
       </c>
       <c r="I38">
-        <v>854.5799999999969</v>
+        <v>1553.109999999992</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>61.37</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1877,28 +1835,28 @@
         <v>46</v>
       </c>
       <c r="C39">
-        <v>60.21739818721107</v>
+        <v>914.7417592160693</v>
       </c>
       <c r="D39">
-        <v>0.01100015640258789</v>
+        <v>0.01900005340576172</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>19.8873981872152</v>
+        <v>28.55175921606768</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>5.336665625650533</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>5.336665625650533</v>
       </c>
       <c r="I39">
-        <v>40.32999999999587</v>
+        <v>720.1600000000017</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>166.03</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1909,28 +1867,28 @@
         <v>47</v>
       </c>
       <c r="C40">
-        <v>60.21739763408409</v>
+        <v>914.741759216071</v>
       </c>
       <c r="D40">
-        <v>0.004999876022338867</v>
+        <v>0.01700019836425781</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>19.8873981872152</v>
+        <v>28.55175921606768</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>5.336665625650533</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>5.336665625650533</v>
       </c>
       <c r="I40">
-        <v>40.3299994468689</v>
+        <v>720.1600000000034</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>166.03</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1941,16 +1899,16 @@
         <v>48</v>
       </c>
       <c r="C41">
-        <v>60.21739818721107</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="D41">
-        <v>0.01200008392333984</v>
+        <v>0.01099991798400879</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>19.8873981872152</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1959,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>40.32999999999587</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -1973,28 +1931,28 @@
         <v>49</v>
       </c>
       <c r="C42">
-        <v>873.8372574679421</v>
+        <v>1640.143003550326</v>
       </c>
       <c r="D42">
-        <v>0.00800013542175293</v>
+        <v>0.01899981498718262</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>19.25725746793464</v>
+        <v>27.88540050229173</v>
       </c>
       <c r="G42">
-        <v>3.836925852814985</v>
+        <v>6.994093728955291</v>
       </c>
       <c r="H42">
-        <v>3.836925852814985</v>
+        <v>4.771696776997118</v>
       </c>
       <c r="I42">
-        <v>368.6700000000074</v>
+        <v>1438.729999999993</v>
       </c>
       <c r="J42">
-        <v>485.91</v>
+        <v>175.75</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2005,16 +1963,16 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>119.4275326957087</v>
+        <v>262.5850064553654</v>
       </c>
       <c r="D43">
-        <v>0.009000062942504883</v>
+        <v>0.01400017738342285</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>23.98753269570873</v>
+        <v>48.12500645536537</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2023,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>95.44</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>214.46</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2037,16 +1995,16 @@
         <v>51</v>
       </c>
       <c r="C44">
-        <v>309.431978056256</v>
+        <v>30.16741306033033</v>
       </c>
       <c r="D44">
-        <v>2.366000175476074</v>
+        <v>198.8740000724792</v>
       </c>
       <c r="E44">
-        <v>0.9693721510508347</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>33.86197805599477</v>
+        <v>30.16741306033033</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2055,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>225.2600000002612</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>50.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2069,28 +2027,28 @@
         <v>52</v>
       </c>
       <c r="C45">
-        <v>1019.699639895617</v>
+        <v>896.7844139021489</v>
       </c>
       <c r="D45">
-        <v>0.01200008392333984</v>
+        <v>0.02300000190734863</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>26.35557902654179</v>
+        <v>29.22695101622659</v>
       </c>
       <c r="G45">
-        <v>7.118526273374133</v>
+        <v>4.159584464343332</v>
       </c>
       <c r="H45">
-        <v>5.792587142453418</v>
+        <v>4.157047350270402</v>
       </c>
       <c r="I45">
-        <v>941.5899999999959</v>
+        <v>867.5599999999954</v>
       </c>
       <c r="J45">
-        <v>53.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2101,28 +2059,28 @@
         <v>53</v>
       </c>
       <c r="C46">
-        <v>396.5896102867711</v>
+        <v>896.7844139021489</v>
       </c>
       <c r="D46">
-        <v>0.01600003242492676</v>
+        <v>0.0559999942779541</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>27.5296102867676</v>
+        <v>29.22695101622659</v>
       </c>
       <c r="G46">
-        <v>1.145862120850498</v>
+        <v>4.159584464343332</v>
       </c>
       <c r="H46">
-        <v>1.145862120850498</v>
+        <v>4.157047350270402</v>
       </c>
       <c r="I46">
-        <v>275.5500000000035</v>
+        <v>867.5599999999954</v>
       </c>
       <c r="J46">
-        <v>93.50999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2133,28 +2091,28 @@
         <v>54</v>
       </c>
       <c r="C47">
-        <v>396.5896102867718</v>
+        <v>896.7844139021503</v>
       </c>
       <c r="D47">
-        <v>0.02200007438659668</v>
+        <v>0.01900005340576172</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>27.5296102867676</v>
+        <v>29.22695101622659</v>
       </c>
       <c r="G47">
-        <v>1.145862120850498</v>
+        <v>4.159584464343332</v>
       </c>
       <c r="H47">
-        <v>1.145862120850498</v>
+        <v>4.157047350270402</v>
       </c>
       <c r="I47">
-        <v>275.5500000000042</v>
+        <v>867.5599999999965</v>
       </c>
       <c r="J47">
-        <v>93.50999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2165,28 +2123,28 @@
         <v>55</v>
       </c>
       <c r="C48">
-        <v>357.599157859413</v>
+        <v>159.0632887764077</v>
       </c>
       <c r="D48">
-        <v>0.01700019836425781</v>
+        <v>0.01999998092651367</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>33.10915785941906</v>
+        <v>30.9032887764077</v>
       </c>
       <c r="G48">
-        <v>3.9641518638922</v>
+        <v>3.515920931989228</v>
       </c>
       <c r="H48">
-        <v>3.9641518638922</v>
+        <v>3.515920931989228</v>
       </c>
       <c r="I48">
-        <v>264.119999999994</v>
+        <v>128.16</v>
       </c>
       <c r="J48">
-        <v>60.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2197,28 +2155,28 @@
         <v>56</v>
       </c>
       <c r="C49">
-        <v>1021.419132648</v>
+        <v>1414.757905858272</v>
       </c>
       <c r="D49">
-        <v>0.009999990463256836</v>
+        <v>0.01900005340576172</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>26.74913264799307</v>
+        <v>29.17977540508634</v>
       </c>
       <c r="G49">
-        <v>4.450188684067006</v>
+        <v>5.828170918474254</v>
       </c>
       <c r="H49">
-        <v>4.450188684067006</v>
+        <v>5.216301371661726</v>
       </c>
       <c r="I49">
-        <v>393.770000000007</v>
+        <v>1271.809999999998</v>
       </c>
       <c r="J49">
-        <v>600.9000000000001</v>
+        <v>114.38</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2229,28 +2187,28 @@
         <v>57</v>
       </c>
       <c r="C50">
-        <v>696.9392770648811</v>
+        <v>262.5850064553654</v>
       </c>
       <c r="D50">
-        <v>0.00800013542175293</v>
+        <v>0.01199984550476074</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>36.70927706488092</v>
+        <v>48.12500645536537</v>
       </c>
       <c r="G50">
-        <v>4.738617941974221</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>4.738617941974221</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>428.3500000000003</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>231.88</v>
+        <v>214.46</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2261,16 +2219,16 @@
         <v>58</v>
       </c>
       <c r="C51">
-        <v>26.53458309510687</v>
+        <v>33.0671278619396</v>
       </c>
       <c r="D51">
-        <v>0.9140000343322754</v>
+        <v>347.4400000572205</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>26.53458309510687</v>
+        <v>33.0671278619396</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2293,28 +2251,28 @@
         <v>59</v>
       </c>
       <c r="C52">
-        <v>1091.229339571343</v>
+        <v>1396.775270651837</v>
       </c>
       <c r="D52">
-        <v>0.009000062942504883</v>
+        <v>0.01900005340576172</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>23.91796089943222</v>
+        <v>29.22695101622659</v>
       </c>
       <c r="G52">
-        <v>4.77723927008741</v>
+        <v>6.64300370256887</v>
       </c>
       <c r="H52">
-        <v>4.738617941974221</v>
+        <v>6.631323338177484</v>
       </c>
       <c r="I52">
-        <v>620.2700000000234</v>
+        <v>1367.560000000002</v>
       </c>
       <c r="J52">
-        <v>447.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2325,28 +2283,28 @@
         <v>60</v>
       </c>
       <c r="C53">
-        <v>497.0523554984831</v>
+        <v>179.6474223937857</v>
       </c>
       <c r="D53">
-        <v>0.01600003242492676</v>
+        <v>0.01999998092651367</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>24.99064597944741</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="G53">
-        <v>6.065177049722176</v>
+        <v>2.462873931000123</v>
       </c>
       <c r="H53">
-        <v>2.836886568752553</v>
+        <v>2.462873931000123</v>
       </c>
       <c r="I53">
-        <v>366.5900000000053</v>
+        <v>149.48</v>
       </c>
       <c r="J53">
-        <v>108.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2357,28 +2315,28 @@
         <v>61</v>
       </c>
       <c r="C54">
-        <v>500.280645979443</v>
+        <v>179.6474223937857</v>
       </c>
       <c r="D54">
-        <v>0.0130000114440918</v>
+        <v>0.02099990844726562</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>24.99064597944741</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="G54">
-        <v>2.378003364169193</v>
+        <v>2.462873931000123</v>
       </c>
       <c r="H54">
-        <v>2.378003364169193</v>
+        <v>2.462873931000123</v>
       </c>
       <c r="I54">
-        <v>422.4199999999955</v>
+        <v>149.48</v>
       </c>
       <c r="J54">
-        <v>52.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2389,16 +2347,16 @@
         <v>62</v>
       </c>
       <c r="C55">
-        <v>135.0555790265418</v>
+        <v>33.0671278619396</v>
       </c>
       <c r="D55">
-        <v>0.006000041961669922</v>
+        <v>0.01200008392333984</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>26.35557902654179</v>
+        <v>33.0671278619396</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2410,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>108.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2421,28 +2379,28 @@
         <v>63</v>
       </c>
       <c r="C56">
-        <v>1091.43471156119</v>
+        <v>179.6474223937857</v>
       </c>
       <c r="D56">
-        <v>0.006999969482421875</v>
+        <v>0.02199983596801758</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>24.3115145208835</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="G56">
-        <v>3.366602695185008</v>
+        <v>0.5160968901282007</v>
       </c>
       <c r="H56">
-        <v>3.139799735480239</v>
+        <v>0.5160968901282007</v>
       </c>
       <c r="I56">
-        <v>969.9100000000115</v>
+        <v>149.48</v>
       </c>
       <c r="J56">
-        <v>97.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2453,28 +2411,28 @@
         <v>64</v>
       </c>
       <c r="C57">
-        <v>147.3892770648809</v>
+        <v>279.4250064553669</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>0.0150001049041748</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>36.70927706488092</v>
+        <v>48.12500645536537</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1.067333125130107</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1.067333125130107</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>16.84000000000151</v>
       </c>
       <c r="J57">
-        <v>110.68</v>
+        <v>214.46</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2485,16 +2443,16 @@
         <v>65</v>
       </c>
       <c r="C58">
-        <v>26.29875013250022</v>
+        <v>34.72913941632567</v>
       </c>
       <c r="D58">
-        <v>1.130999803543091</v>
+        <v>245.944000005722</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>26.29875013250022</v>
+        <v>34.72913941632567</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2517,28 +2475,28 @@
         <v>66</v>
       </c>
       <c r="C59">
-        <v>1676.610268005549</v>
+        <v>1895.419878951544</v>
       </c>
       <c r="D59">
-        <v>0.006999969482421875</v>
+        <v>0.02099990844726562</v>
       </c>
       <c r="E59">
-        <v>7.11293361003758E-06</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>21.92482366701793</v>
+        <v>29.2269510162266</v>
       </c>
       <c r="G59">
-        <v>4.943173603449611</v>
+        <v>9.368808045883737</v>
       </c>
       <c r="H59">
-        <v>4.738617941974221</v>
+        <v>8.001735981194642</v>
       </c>
       <c r="I59">
-        <v>1347.510000000006</v>
+        <v>1591.460000000005</v>
       </c>
       <c r="J59">
-        <v>307.3800000000001</v>
+        <v>276.1</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2549,28 +2507,28 @@
         <v>67</v>
       </c>
       <c r="C60">
-        <v>1014.423453125771</v>
+        <v>498.8474223937857</v>
       </c>
       <c r="D60">
-        <v>0.006000041961669922</v>
+        <v>0.01900005340576172</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>22.00055025312762</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="G60">
-        <v>5.894019291323108</v>
+        <v>5.511158257795896</v>
       </c>
       <c r="H60">
-        <v>3.646922163947599</v>
+        <v>5.511158257795896</v>
       </c>
       <c r="I60">
-        <v>793.1700000000191</v>
+        <v>317.64</v>
       </c>
       <c r="J60">
-        <v>201.5</v>
+        <v>151.04</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2581,28 +2539,28 @@
         <v>68</v>
       </c>
       <c r="C61">
-        <v>391.2679608994313</v>
+        <v>498.8474223937857</v>
       </c>
       <c r="D61">
-        <v>0.009999990463256836</v>
+        <v>0.02199983596801758</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>23.91796089943222</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="G61">
-        <v>3.9641518638922</v>
+        <v>4.57883629623016</v>
       </c>
       <c r="H61">
-        <v>3.9641518638922</v>
+        <v>4.57883629623016</v>
       </c>
       <c r="I61">
-        <v>218.7199999999991</v>
+        <v>317.64</v>
       </c>
       <c r="J61">
-        <v>148.63</v>
+        <v>151.04</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2613,28 +2571,28 @@
         <v>69</v>
       </c>
       <c r="C62">
-        <v>77.8606459794474</v>
+        <v>102.2671278619396</v>
       </c>
       <c r="D62">
-        <v>0.0149998664855957</v>
+        <v>0.02399992942810059</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>24.99064597944741</v>
+        <v>33.0671278619396</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1.406368372795691</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1.406368372795691</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>69.2</v>
       </c>
       <c r="J62">
-        <v>52.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2645,28 +2603,28 @@
         <v>70</v>
       </c>
       <c r="C63">
-        <v>1674.399505879263</v>
+        <v>498.8474223937857</v>
       </c>
       <c r="D63">
-        <v>0.003999948501586914</v>
+        <v>0.02200007438659668</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>23.33006819063954</v>
+        <v>30.16742239378572</v>
       </c>
       <c r="G63">
-        <v>6.41079396126198</v>
+        <v>3.054530861870959</v>
       </c>
       <c r="H63">
-        <v>2.590231649872266</v>
+        <v>3.054530861870959</v>
       </c>
       <c r="I63">
-        <v>1129.060000000013</v>
+        <v>375.78</v>
       </c>
       <c r="J63">
-        <v>525.83</v>
+        <v>92.90000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2677,28 +2635,28 @@
         <v>71</v>
       </c>
       <c r="C64">
-        <v>147.3892770648809</v>
+        <v>408.7450064553623</v>
       </c>
       <c r="D64">
-        <v>0.004999876022338867</v>
+        <v>0.01799988746643066</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>36.70927706488092</v>
+        <v>48.12500645536537</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>3.20199937539032</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>3.20199937539032</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>146.1599999999969</v>
       </c>
       <c r="J64">
-        <v>110.68</v>
+        <v>214.46</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2709,16 +2667,16 @@
         <v>72</v>
       </c>
       <c r="C65">
-        <v>307.6174397573979</v>
+        <v>47.6988582027596</v>
       </c>
       <c r="D65">
-        <v>181.175999879837</v>
+        <v>1109.941999912262</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>32.04743975738332</v>
+        <v>42.64885820276033</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2727,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>275.5700000000146</v>
+        <v>5.049999999999272</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2741,28 +2699,28 @@
         <v>73</v>
       </c>
       <c r="C66">
-        <v>1017.797288545571</v>
+        <v>973.0443529467499</v>
       </c>
       <c r="D66">
-        <v>0.01200008392333984</v>
+        <v>0.02300000190734863</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>26.35557902654179</v>
+        <v>30.16742239378571</v>
       </c>
       <c r="G66">
-        <v>8.443180413891367</v>
+        <v>6.425132629688886</v>
       </c>
       <c r="H66">
-        <v>5.214889932921746</v>
+        <v>5.522063182658688</v>
       </c>
       <c r="I66">
-        <v>691.7199999999982</v>
+        <v>823.9799999999943</v>
       </c>
       <c r="J66">
-        <v>302.95</v>
+        <v>119.8</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2773,28 +2731,28 @@
         <v>74</v>
       </c>
       <c r="C67">
-        <v>396.5896102867676</v>
+        <v>976.1856520136134</v>
       </c>
       <c r="D67">
-        <v>0.01099991798400879</v>
+        <v>0.02300000190734863</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>27.5296102867676</v>
+        <v>32.40565201361344</v>
       </c>
       <c r="G67">
-        <v>1.145862120850498</v>
+        <v>2.733406698459491</v>
       </c>
       <c r="H67">
-        <v>1.145862120850498</v>
+        <v>2.733406698459491</v>
       </c>
       <c r="I67">
-        <v>275.55</v>
+        <v>779.4</v>
       </c>
       <c r="J67">
-        <v>93.50999999999999</v>
+        <v>164.38</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2805,28 +2763,28 @@
         <v>75</v>
       </c>
       <c r="C68">
-        <v>396.5896102867676</v>
+        <v>976.1856520136135</v>
       </c>
       <c r="D68">
-        <v>0.01200008392333984</v>
+        <v>0.02099990844726562</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>27.5296102867676</v>
+        <v>32.40565201361345</v>
       </c>
       <c r="G68">
-        <v>1.145862120850498</v>
+        <v>6.884956296035136</v>
       </c>
       <c r="H68">
-        <v>1.145862120850498</v>
+        <v>6.884956296035136</v>
       </c>
       <c r="I68">
-        <v>275.55</v>
+        <v>497.14</v>
       </c>
       <c r="J68">
-        <v>93.50999999999999</v>
+        <v>446.64</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2837,28 +2795,28 @@
         <v>76</v>
       </c>
       <c r="C69">
-        <v>357.4462074868381</v>
+        <v>180.2989212663341</v>
       </c>
       <c r="D69">
-        <v>0.01200008392333984</v>
+        <v>0.02999997138977051</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>32.95620748683876</v>
+        <v>37.36892126633407</v>
       </c>
       <c r="G69">
-        <v>3.9641518638922</v>
+        <v>1.391236859776221</v>
       </c>
       <c r="H69">
-        <v>3.9641518638922</v>
+        <v>1.391236859776221</v>
       </c>
       <c r="I69">
-        <v>271.4099999999993</v>
+        <v>142.93</v>
       </c>
       <c r="J69">
-        <v>53.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2869,28 +2827,28 @@
         <v>77</v>
       </c>
       <c r="C70">
-        <v>1021.419132647999</v>
+        <v>1310.214944151745</v>
       </c>
       <c r="D70">
-        <v>0.009999990463256836</v>
+        <v>0.01999998092651367</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>26.74913264799307</v>
+        <v>31.88681369856157</v>
       </c>
       <c r="G70">
-        <v>4.450188684067006</v>
+        <v>5.828170918474254</v>
       </c>
       <c r="H70">
-        <v>4.450188684067006</v>
+        <v>5.216301371661726</v>
       </c>
       <c r="I70">
-        <v>645.0300000000061</v>
+        <v>1114.559999999996</v>
       </c>
       <c r="J70">
-        <v>349.64</v>
+        <v>164.38</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2901,476 +2859,28 @@
         <v>78</v>
       </c>
       <c r="C71">
-        <v>651.7408010327504</v>
+        <v>639.3650064553691</v>
       </c>
       <c r="D71">
-        <v>0.01200008392333984</v>
+        <v>0.01699995994567871</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>34.03080103274972</v>
+        <v>48.12500645536537</v>
       </c>
       <c r="G71">
-        <v>2.843170765184533</v>
+        <v>4.269332500520426</v>
       </c>
       <c r="H71">
-        <v>2.843170765184533</v>
+        <v>4.269332500520426</v>
       </c>
       <c r="I71">
-        <v>448.6400000000006</v>
+        <v>226.0800000000038</v>
       </c>
       <c r="J71">
-        <v>169.07</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72">
-        <v>26.35557902654179</v>
-      </c>
-      <c r="D72">
-        <v>5.176999807357788</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>26.3555790265418</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73">
-        <v>1091.229339571329</v>
-      </c>
-      <c r="D73">
-        <v>0.00800013542175293</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>23.91796089943222</v>
-      </c>
-      <c r="G73">
-        <v>4.77723927008741</v>
-      </c>
-      <c r="H73">
-        <v>4.738617941974221</v>
-      </c>
-      <c r="I73">
-        <v>717.7100000000102</v>
-      </c>
-      <c r="J73">
-        <v>349.64</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74">
-        <v>500.2806459794576</v>
-      </c>
-      <c r="D74">
-        <v>0.006999969482421875</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>24.99064597944741</v>
-      </c>
-      <c r="G74">
-        <v>2.378003364169193</v>
-      </c>
-      <c r="H74">
-        <v>2.378003364169193</v>
-      </c>
-      <c r="I74">
-        <v>235.9700000000101</v>
-      </c>
-      <c r="J74">
-        <v>239.32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75">
-        <v>500.2806459794576</v>
-      </c>
-      <c r="D75">
-        <v>0.008999824523925781</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>24.99064597944741</v>
-      </c>
-      <c r="G75">
-        <v>2.378003364169193</v>
-      </c>
-      <c r="H75">
-        <v>2.378003364169193</v>
-      </c>
-      <c r="I75">
-        <v>235.9700000000101</v>
-      </c>
-      <c r="J75">
-        <v>239.32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76">
-        <v>26.35557902654179</v>
-      </c>
-      <c r="D76">
-        <v>0.004999876022338867</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>26.35557902654179</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77">
-        <v>1091.321310081332</v>
-      </c>
-      <c r="D77">
-        <v>0.009000062942504883</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>24.3115145208835</v>
-      </c>
-      <c r="G77">
-        <v>3.754788217841379</v>
-      </c>
-      <c r="H77">
-        <v>3.414583778284226</v>
-      </c>
-      <c r="I77">
-        <v>1014.270000000005</v>
-      </c>
-      <c r="J77">
-        <v>53.08</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78">
-        <v>142.7308010327497</v>
-      </c>
-      <c r="D78">
-        <v>0.004999876022338867</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>34.03080103274972</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>108.7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79">
-        <v>24.99064597944741</v>
-      </c>
-      <c r="D79">
-        <v>5.861999988555908</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>24.99064597944741</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80">
-        <v>1676.610268005544</v>
-      </c>
-      <c r="D80">
-        <v>0.007999897003173828</v>
-      </c>
-      <c r="E80">
-        <v>6.830343646905243E-06</v>
-      </c>
-      <c r="F80">
-        <v>21.92482366701793</v>
-      </c>
-      <c r="G80">
-        <v>4.943173603449611</v>
-      </c>
-      <c r="H80">
-        <v>4.738617941974221</v>
-      </c>
-      <c r="I80">
-        <v>1436.870000000001</v>
-      </c>
-      <c r="J80">
-        <v>218.02</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>88</v>
-      </c>
-      <c r="C81">
-        <v>1013.861678843903</v>
-      </c>
-      <c r="D81">
-        <v>0.007999897003173828</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>22.00055025312762</v>
-      </c>
-      <c r="G81">
-        <v>6.773023273111587</v>
-      </c>
-      <c r="H81">
-        <v>3.9641518638922</v>
-      </c>
-      <c r="I81">
-        <v>846.039999999995</v>
-      </c>
-      <c r="J81">
-        <v>148.63</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82">
-        <v>391.2525123681869</v>
-      </c>
-      <c r="D82">
-        <v>0.009000062942504883</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>23.91796089943222</v>
-      </c>
-      <c r="G82">
-        <v>2.598412980545262</v>
-      </c>
-      <c r="H82">
-        <v>2.582964449299987</v>
-      </c>
-      <c r="I82">
-        <v>367.35</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C83">
-        <v>24.99064597944741</v>
-      </c>
-      <c r="D83">
-        <v>0.006000041961669922</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>24.99064597944741</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84">
-        <v>1674.399505879249</v>
-      </c>
-      <c r="D84">
-        <v>0.007999897003173828</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>23.33006819063954</v>
-      </c>
-      <c r="G84">
-        <v>6.41079396126198</v>
-      </c>
-      <c r="H84">
-        <v>2.590231649872266</v>
-      </c>
-      <c r="I84">
-        <v>1384.939999999999</v>
-      </c>
-      <c r="J84">
-        <v>269.95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>92</v>
-      </c>
-      <c r="C85">
-        <v>142.7308010327497</v>
-      </c>
-      <c r="D85">
-        <v>0.006000041961669922</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>34.03080103274972</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>108.7</v>
+        <v>365.16</v>
       </c>
     </row>
   </sheetData>
